--- a/experiments/lidar_mocap/HCN02/best_accuracy_series.xlsx
+++ b/experiments/lidar_mocap/HCN02/best_accuracy_series.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -525,67 +525,67 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>80.33854141831398</v>
+        <v>83.85416666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>80.33854141831398</v>
+        <v>81.25</v>
       </c>
       <c r="D2" t="n">
-        <v>78.09895798563957</v>
+        <v>58.07291666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>70.91145813465118</v>
+        <v>54.6875</v>
       </c>
       <c r="F2" t="n">
-        <v>67.83854141831398</v>
+        <v>53.125</v>
       </c>
       <c r="G2" t="n">
-        <v>65.83333313465118</v>
+        <v>52.08333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>64.66145813465118</v>
+        <v>52.08333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>63.15104141831398</v>
+        <v>51.82291666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>63.15104141831398</v>
+        <v>50.52083333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>62.36979141831398</v>
+        <v>49.21875</v>
       </c>
       <c r="L2" t="n">
-        <v>62.31770813465118</v>
+        <v>48.69791666666666</v>
       </c>
       <c r="M2" t="n">
-        <v>62.31770813465118</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="N2" t="n">
-        <v>61.92708313465118</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="O2" t="n">
-        <v>61.92708313465118</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="P2" t="n">
-        <v>61.14583313465118</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.14583313465118</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="R2" t="n">
-        <v>61.14583313465118</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="S2" t="n">
-        <v>61.14583313465118</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="T2" t="n">
-        <v>61.14583313465118</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="U2" t="n">
-        <v>60.36458313465118</v>
+        <v>48.17708333333334</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/experiments/lidar_mocap/HCN02/best_accuracy_series.xlsx
+++ b/experiments/lidar_mocap/HCN02/best_accuracy_series.xlsx
@@ -525,64 +525,64 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>83.85416666666666</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>81.25</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>58.07291666666667</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>54.6875</v>
+        <v>73.69791666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>53.125</v>
+        <v>59.89583333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>52.08333333333333</v>
+        <v>59.63541666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>52.08333333333333</v>
+        <v>56.25</v>
       </c>
       <c r="I2" t="n">
-        <v>51.82291666666667</v>
+        <v>54.16666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>50.52083333333333</v>
+        <v>54.16666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>49.21875</v>
+        <v>54.16666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>48.69791666666666</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="M2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="O2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="R2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="S2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="T2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
       <c r="U2" t="n">
-        <v>48.17708333333334</v>
+        <v>53.38541666666667</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/lidar_mocap/HCN02/best_accuracy_series.xlsx
+++ b/experiments/lidar_mocap/HCN02/best_accuracy_series.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -525,67 +525,67 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>83.33333333333334</v>
+        <v>60.36324782503976</v>
       </c>
       <c r="C2" t="n">
-        <v>83.33333333333334</v>
+        <v>50.94818373521169</v>
       </c>
       <c r="D2" t="n">
-        <v>83.33333333333334</v>
+        <v>46.62126070923276</v>
       </c>
       <c r="E2" t="n">
-        <v>73.69791666666667</v>
+        <v>45.69978614648183</v>
       </c>
       <c r="F2" t="n">
-        <v>59.89583333333333</v>
+        <v>44.23076907793681</v>
       </c>
       <c r="G2" t="n">
-        <v>59.63541666666667</v>
+        <v>43.70993574460348</v>
       </c>
       <c r="H2" t="n">
-        <v>56.25</v>
+        <v>43.01549130015903</v>
       </c>
       <c r="I2" t="n">
-        <v>54.16666666666667</v>
+        <v>43.01549130015903</v>
       </c>
       <c r="J2" t="n">
-        <v>54.16666666666667</v>
+        <v>42.58814089828067</v>
       </c>
       <c r="K2" t="n">
-        <v>54.16666666666667</v>
+        <v>42.58814089828067</v>
       </c>
       <c r="L2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="M2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="N2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="O2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="P2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="Q2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="R2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="S2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="T2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
       <c r="U2" t="n">
-        <v>53.38541666666667</v>
+        <v>42.41452978716956</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>